--- a/BackTest/2019-10-16 BackTest GTO.xlsx
+++ b/BackTest/2019-10-16 BackTest GTO.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571458</v>
+      </c>
       <c r="L12" t="n">
         <v>16.28</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-42.85714285714271</v>
+      </c>
       <c r="L13" t="n">
         <v>16.27</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.28571428571458</v>
+      </c>
       <c r="L14" t="n">
         <v>16.25</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.28571428571458</v>
+      </c>
       <c r="L15" t="n">
         <v>16.24</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-14.28571428571458</v>
+      </c>
       <c r="L16" t="n">
         <v>16.23</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571458</v>
+      </c>
       <c r="L17" t="n">
         <v>16.21999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.399999999999995</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>16.23999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-7.692307692307819</v>
+      </c>
       <c r="L19" t="n">
         <v>16.20999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-27.27272727272739</v>
+      </c>
       <c r="L20" t="n">
         <v>16.19999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.899999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-27.27272727272739</v>
+      </c>
       <c r="L21" t="n">
         <v>16.16999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.999999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>16.14999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>25.92592592592597</v>
+        <v>41.17647058823527</v>
       </c>
       <c r="L23" t="n">
         <v>16.22999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>2.899999999999991</v>
       </c>
       <c r="K24" t="n">
-        <v>15.38461538461552</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L24" t="n">
         <v>16.28999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>3.448275862068898</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L25" t="n">
         <v>16.31</v>
@@ -1564,7 +1586,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>3.448275862068898</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L26" t="n">
         <v>16.32999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.225806451612955</v>
+        <v>-14.28571428571433</v>
       </c>
       <c r="L27" t="n">
         <v>16.32999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>3.599999999999994</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L28" t="n">
         <v>16.31</v>
@@ -1711,7 +1733,7 @@
         <v>3.699999999999992</v>
       </c>
       <c r="K29" t="n">
-        <v>3.030303030302972</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L29" t="n">
         <v>16.35</v>
@@ -1760,7 +1782,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>6.249999999999993</v>
+        <v>15.78947368421061</v>
       </c>
       <c r="L30" t="n">
         <v>16.38</v>
@@ -1809,7 +1831,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.249999999999993</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>16.39</v>
@@ -1860,7 +1882,7 @@
         <v>4.19999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.76470588235297</v>
+        <v>-71.42857142857146</v>
       </c>
       <c r="L32" t="n">
         <v>16.37</v>
@@ -1911,7 +1933,7 @@
         <v>4.599999999999991</v>
       </c>
       <c r="K33" t="n">
-        <v>5.555555555555545</v>
+        <v>-29.41176470588237</v>
       </c>
       <c r="L33" t="n">
         <v>16.31</v>
@@ -1962,7 +1984,7 @@
         <v>4.79999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.702702702702648</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L34" t="n">
         <v>16.24</v>
@@ -2013,7 +2035,7 @@
         <v>4.899999999999988</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L35" t="n">
         <v>16.22</v>
@@ -2115,7 +2137,7 @@
         <v>5.099999999999987</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.999999999999991</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L37" t="n">
         <v>16.18</v>
@@ -2166,7 +2188,7 @@
         <v>5.199999999999987</v>
       </c>
       <c r="K38" t="n">
-        <v>-15.78947368421055</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>16.13999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>5.399999999999988</v>
       </c>
       <c r="K39" t="n">
-        <v>2.857142857142903</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L39" t="n">
         <v>16.10999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>5.399999999999988</v>
       </c>
       <c r="K40" t="n">
-        <v>2.857142857142903</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>16.08999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>5.499999999999989</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7.692307692307672</v>
       </c>
       <c r="L41" t="n">
         <v>16.07999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>5.599999999999989</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.555555555555597</v>
+        <v>-40.00000000000011</v>
       </c>
       <c r="L42" t="n">
         <v>16.07999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>5.699999999999989</v>
       </c>
       <c r="K43" t="n">
-        <v>-31.0344827586207</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L43" t="n">
         <v>16.04999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>-24.13793103448275</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L44" t="n">
         <v>16.04999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>5.899999999999991</v>
       </c>
       <c r="K45" t="n">
-        <v>-15.38461538461534</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L45" t="n">
         <v>16.02999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>6.199999999999992</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.448275862068894</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L46" t="n">
         <v>16.04</v>
@@ -2625,7 +2647,7 @@
         <v>6.599999999999993</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.677419354838676</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>16.02999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>6.799999999999994</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.24999999999998</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>16.04999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.030303030302965</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L49" t="n">
         <v>16.07</v>
